--- a/exelNodeJS/example.xlsx
+++ b/exelNodeJS/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>№</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Häzirki aý üçin zahmet tölegleri gaznasyndan hasaplanany</t>
   </si>
   <si>
+    <t>Tutylan we bergiň ujyndan hasaplanany</t>
+  </si>
+  <si>
     <t>Işlan günleri</t>
   </si>
   <si>
@@ -46,23 +49,65 @@
     <t>Utgişdyrma</t>
   </si>
   <si>
-    <t>CCCCCCC</t>
-  </si>
-  <si>
-    <t>Buh</t>
-  </si>
-  <si>
-    <t>9963.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jemi</t>
+    <t>Zähmet rugsady</t>
+  </si>
+  <si>
+    <t>Ýarawsyzlyk</t>
+  </si>
+  <si>
+    <t>Gaýtadan hasaplama</t>
+  </si>
+  <si>
+    <t>Zyýanlyk</t>
+  </si>
+  <si>
+    <t>Jemi hasaplanan</t>
+  </si>
+  <si>
+    <t>Hak ujy</t>
+  </si>
+  <si>
+    <t>Ýerillikli girdeji salgydy</t>
+  </si>
+  <si>
+    <t>Saglyk ätiýaçlandyrmasy</t>
+  </si>
+  <si>
+    <t>Pensiýa ätiýaçlandyrmasy</t>
+  </si>
+  <si>
+    <t>Kärdeşler arkalaşygyna töleg</t>
+  </si>
+  <si>
+    <t>Ýaşlar guramasy ýygymy</t>
+  </si>
+  <si>
+    <t>Lukmançylyk jemgyýeti salgydy</t>
+  </si>
+  <si>
+    <t>Demokratiýa partiýa ýygymy</t>
+  </si>
+  <si>
+    <t>Abadanlaşdyryş gaznasy</t>
+  </si>
+  <si>
+    <t>Isma</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Data for QQ4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -70,13 +115,23 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,10 +169,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,16 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:X3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,110 +541,138 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
     </row>
-    <row r="2" ht="100" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" ht="3" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>100</v>
+      </c>
+      <c r="G3" s="4">
+        <v>200</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="P1:X1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
